--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\MAYIJUNGH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\MAYIJUNGH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE379D7-2C62-4D69-8174-48F52D2C6C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069626C2-4D1C-4112-B056-35750D061976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9276" yWindow="2220" windowWidth="16680" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Resume</t>
   </si>
@@ -46,6 +46,36 @@
   </si>
   <si>
     <t>Modeling</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Subway</t>
+  </si>
+  <si>
+    <t>https://cdr.lib.unc.edu/concern/masters_papers/cr56n2458</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>BMN</t>
   </si>
 </sst>
 </file>
@@ -363,50 +393,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\MAYIJUNGH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069626C2-4D1C-4112-B056-35750D061976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B2117-39C1-40C2-BB40-F75C8EAE6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9276" yWindow="2220" windowWidth="16680" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Resume</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>BMN</t>
+  </si>
+  <si>
+    <t>Urban Design</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,6 +465,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\MAYIJUNGH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B2117-39C1-40C2-BB40-F75C8EAE6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E75E3E-13F5-47D8-A281-58BCC1032E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,30 +428,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\MAYIJUNGH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E75E3E-13F5-47D8-A281-58BCC1032E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA26E6-7C37-4D24-A961-4D289E8E733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>Resume</t>
   </si>
@@ -79,6 +79,126 @@
   </si>
   <si>
     <t>Urban Design</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>AICP</t>
+  </si>
+  <si>
+    <t>Brooklyn CB4 Bike Plan</t>
+  </si>
+  <si>
+    <t>Southern Blvd</t>
+  </si>
+  <si>
+    <t>Synchro</t>
+  </si>
+  <si>
+    <t>Flushing West</t>
+  </si>
+  <si>
+    <t>Gowanus</t>
+  </si>
+  <si>
+    <t>DBK</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>Bay Street</t>
+  </si>
+  <si>
+    <t>East Harlem</t>
+  </si>
+  <si>
+    <t>Flushing Waterfront</t>
+  </si>
+  <si>
+    <t>North Brooklyn</t>
+  </si>
+  <si>
+    <t>Bushwick</t>
+  </si>
+  <si>
+    <t>Kew Gardens</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>DATA ANALYTICS TOOL</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>NYMTC Projection</t>
+  </si>
+  <si>
+    <t>Pelham Bay</t>
+  </si>
+  <si>
+    <t>Citi Bike</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>GTFS-Real Time</t>
+  </si>
+  <si>
+    <t>MTA ADA</t>
+  </si>
+  <si>
+    <t>DMV</t>
+  </si>
+  <si>
+    <t>SafeGraph</t>
+  </si>
+  <si>
+    <t>CD11</t>
+  </si>
+  <si>
+    <t>POPS</t>
+  </si>
+  <si>
+    <t>sidewalk</t>
+  </si>
+  <si>
+    <t>open restaurant</t>
+  </si>
+  <si>
+    <t>skill sharing</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>EDDT</t>
+  </si>
+  <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>10/60 min</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>c&amp;T</t>
+  </si>
+  <si>
+    <t>https://www.nymtc.org/Required-Planning-Products/Regional-Transportation-Plan-RTP/Plan-2045-Maintaining-the-Vision-for-a-Sustainable-Region</t>
+  </si>
+  <si>
+    <t>rtp</t>
   </si>
 </sst>
 </file>
@@ -396,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,61 +551,352 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\MAYIJUNGH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA26E6-7C37-4D24-A961-4D289E8E733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AAB981-9420-48AC-92B6-335C2E737BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Resume</t>
   </si>
@@ -195,10 +195,7 @@
     <t>c&amp;T</t>
   </si>
   <si>
-    <t>https://www.nymtc.org/Required-Planning-Products/Regional-Transportation-Plan-RTP/Plan-2045-Maintaining-the-Vision-for-a-Sustainable-Region</t>
-  </si>
-  <si>
-    <t>rtp</t>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -516,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,131 +529,114 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2015</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
@@ -665,80 +645,65 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" t="s">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
+      <c r="P25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -747,86 +712,74 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
@@ -844,59 +797,98 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
         <v>47</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>48</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>49</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>52</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>2022</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AAB981-9420-48AC-92B6-335C2E737BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFDAC8-D16F-454B-9EA8-7342A45B40DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,21 +538,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -566,328 +566,328 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2015</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2016</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" t="s">
-        <v>1</v>
-      </c>
-      <c r="P25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
       <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" t="s">
-        <v>37</v>
+      <c r="P27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M28" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
         <v>39</v>
       </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>2020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>2022</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>54</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F32" t="s">
         <v>48</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>55</v>
       </c>
     </row>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFDAC8-D16F-454B-9EA8-7342A45B40DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C163F-9682-4F6C-8B58-671A914EE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
   <si>
     <t>Resume</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Subway</t>
   </si>
   <si>
-    <t>https://cdr.lib.unc.edu/concern/masters_papers/cr56n2458</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
   </si>
   <si>
     <t>RTP</t>
-  </si>
-  <si>
-    <t>AICP</t>
   </si>
   <si>
     <t>Brooklyn CB4 Bike Plan</t>
@@ -202,10 +196,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,13 +230,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,7 +521,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,7 +563,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -566,42 +571,37 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -628,10 +628,10 @@
         <v>2015</v>
       </c>
       <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -639,19 +639,19 @@
         <v>2016</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -659,46 +659,46 @@
         <v>2017</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>28</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>31</v>
-      </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>33</v>
       </c>
       <c r="O27" t="s">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -706,34 +706,34 @@
         <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
       </c>
       <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
         <v>34</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>35</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -741,40 +741,40 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
         <v>34</v>
       </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>40</v>
       </c>
-      <c r="I29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>35</v>
-      </c>
-      <c r="K29" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -782,46 +782,46 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
         <v>45</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>47</v>
       </c>
-      <c r="L30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" t="s">
-        <v>49</v>
-      </c>
       <c r="N30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" t="s">
         <v>52</v>
-      </c>
-      <c r="O30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -829,43 +829,43 @@
         <v>2021</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" t="s">
-        <v>48</v>
-      </c>
-      <c r="L31" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>52</v>
-      </c>
-      <c r="N31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -873,22 +873,22 @@
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
         <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046C163F-9682-4F6C-8B58-671A914EE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32006CA5-AB3E-4DFC-8AB5-CAF8846F0E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\mayijun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32006CA5-AB3E-4DFC-8AB5-CAF8846F0E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAC458-74AE-47BF-9949-83A90880D588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,22 +577,20 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAC458-74AE-47BF-9949-83A90880D588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE82E8A-05D7-4025-9116-149F0D463A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,29 +573,29 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE82E8A-05D7-4025-9116-149F0D463A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F35AAB-EE39-4F71-A1FB-F0F5EA4BE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F35AAB-EE39-4F71-A1FB-F0F5EA4BE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51035266-6F4D-4A66-ABA3-B057CBB2ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Resume</t>
   </si>
@@ -42,9 +42,6 @@
     <t>C&amp;T</t>
   </si>
   <si>
-    <t>Engineering</t>
-  </si>
-  <si>
     <t>Modeling</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>OR</t>
-  </si>
-  <si>
-    <t>Southern</t>
   </si>
   <si>
     <t>BMN</t>
@@ -520,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,95 +524,94 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -626,10 +619,10 @@
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -637,19 +630,19 @@
         <v>2016</v>
       </c>
       <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -657,46 +650,46 @@
         <v>2017</v>
       </c>
       <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>28</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>29</v>
-      </c>
-      <c r="L27" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" t="s">
-        <v>31</v>
       </c>
       <c r="O27" t="s">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -704,34 +697,34 @@
         <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
         <v>1</v>
       </c>
       <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
         <v>32</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -739,40 +732,40 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
         <v>32</v>
       </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>38</v>
       </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="M29" t="s">
         <v>33</v>
-      </c>
-      <c r="K29" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -780,46 +773,46 @@
         <v>2020</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
         <v>43</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>44</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
         <v>45</v>
       </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>47</v>
-      </c>
       <c r="N30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" t="s">
         <v>50</v>
-      </c>
-      <c r="O30" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -827,43 +820,43 @@
         <v>2021</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>50</v>
-      </c>
-      <c r="N31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -871,22 +864,22 @@
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
         <v>51</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51035266-6F4D-4A66-ABA3-B057CBB2ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78641CD-C289-4E01-8984-43D296A88931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Resume</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>English</t>
+  </si>
+  <si>
+    <t>Skill training</t>
+  </si>
+  <si>
+    <t>Scikit-Learn</t>
+  </si>
+  <si>
+    <t>Pytorch</t>
+  </si>
+  <si>
+    <t>OpenCV</t>
+  </si>
+  <si>
+    <t>Blender</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>React</t>
   </si>
 </sst>
 </file>
@@ -512,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,20 +545,38 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -545,109 +584,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2015</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -656,80 +680,65 @@
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
+      <c r="P28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -738,86 +747,74 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -835,50 +832,97 @@
         <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
         <v>43</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>44</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>45</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>48</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>2022</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>44</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>51</v>
       </c>
     </row>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78641CD-C289-4E01-8984-43D296A88931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C944FD9C-9556-4900-98DF-7C3424B60742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Skill training</t>
-  </si>
-  <si>
     <t>Scikit-Learn</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>React</t>
+  </si>
+  <si>
+    <t>TDDAT</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -553,22 +553,22 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -606,38 +606,38 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C944FD9C-9556-4900-98DF-7C3424B60742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41B34D-071D-4318-8B38-D2E5D51D8B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Resume</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>TDDAT</t>
+  </si>
+  <si>
+    <t>Three JS</t>
+  </si>
+  <si>
+    <t>D3 JS</t>
   </si>
 </sst>
 </file>
@@ -535,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +551,7 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,13 +576,19 @@
       <c r="I1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -584,58 +596,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>11</v>
       </c>

--- a/DESIGN.xlsx
+++ b/DESIGN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\mayijun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41B34D-071D-4318-8B38-D2E5D51D8B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C11EBB3-D103-4C3B-BCCD-53D79B63DA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Resume</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>D3 JS</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
   </si>
 </sst>
 </file>
@@ -542,16 +545,17 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D1" sqref="D1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,30 +569,33 @@
         <v>54</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -596,58 +603,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>11</v>
       </c>
